--- a/forecast_summary_B09J5TC4F8.xlsx
+++ b/forecast_summary_B09J5TC4F8.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-19.7972079435056</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.458364155733997</v>
+        <v>-7.382278878938805</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-45.02125543165446</v>
       </c>
       <c r="D3" t="n">
-        <v>-32.3015658824656</v>
+        <v>-31.71520904964036</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-53.55210033657398</v>
       </c>
       <c r="D4" t="n">
-        <v>-39.91212079591561</v>
+        <v>-41.50439302690174</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-36.7522505683072</v>
       </c>
       <c r="D5" t="n">
-        <v>-23.91274791919933</v>
+        <v>-23.94992201675791</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-10.3211631562187</v>
       </c>
       <c r="D6" t="n">
-        <v>2.412701975238259</v>
+        <v>1.770793100761179</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.1049952116518082</v>
       </c>
       <c r="D7" t="n">
-        <v>12.92305445173189</v>
+        <v>12.99250218787303</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-15.2967506081952</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.112168883068066</v>
+        <v>-2.836982492212044</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-38.30786703419378</v>
       </c>
       <c r="D9" t="n">
-        <v>-26.28100446026194</v>
+        <v>-25.3024917120959</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-43.42848249915635</v>
       </c>
       <c r="D10" t="n">
-        <v>-31.02068523768712</v>
+        <v>-29.91856499954588</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-24.26075094741569</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.95587282366864</v>
+        <v>-11.34668783412385</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.2359713401184798</v>
       </c>
       <c r="D12" t="n">
-        <v>13.31275538362588</v>
+        <v>13.82998514541676</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>7.154887631404071</v>
       </c>
       <c r="D13" t="n">
-        <v>19.81137748878645</v>
+        <v>20.41916343048049</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-6.100329243955732</v>
       </c>
       <c r="D14" t="n">
-        <v>6.444162844079521</v>
+        <v>6.065480853455941</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-21.30068955510754</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.658359424551904</v>
+        <v>-8.59286227872915</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-21.17013336885932</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.158404995918151</v>
+        <v>-8.024055366497619</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-7.41646169006308</v>
       </c>
       <c r="D17" t="n">
-        <v>5.844751279792309</v>
+        <v>4.92127588172529</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>4.281551945961715</v>
       </c>
       <c r="D18" t="n">
-        <v>16.93009208527008</v>
+        <v>18.24312521000775</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>3.682679700812702</v>
       </c>
       <c r="D19" t="n">
-        <v>16.35823828755989</v>
+        <v>16.87025898988568</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-3.963778751005176</v>
       </c>
       <c r="D20" t="n">
-        <v>9.694410318369092</v>
+        <v>8.545534004529372</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-7.040720823616327</v>
       </c>
       <c r="D21" t="n">
-        <v>5.76717220409388</v>
+        <v>5.082243446724316</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 GAMING X DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
